--- a/docs/results ticktack .xlsx
+++ b/docs/results ticktack .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/74203a780c3e4554/Documents/GitHub/MThesis-Foosball/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F36010-D7AA-48F4-853C-C986D203B2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{E6F36010-D7AA-48F4-853C-C986D203B2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECA580E5-D0D8-4513-9B95-380E32ED62FE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{2F5E9010-7448-437C-BE75-9B85BB8A09DA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{2F5E9010-7448-437C-BE75-9B85BB8A09DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>Discrete</t>
   </si>
@@ -67,11 +67,17 @@
   <si>
     <t>DCCS</t>
   </si>
+  <si>
+    <t>loss/touch</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,8 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -123,7 +130,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -141,7 +148,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -154,8 +161,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Average number of Touches</a:t>
+              <a:rPr lang="en-GB"/>
+              <a:t>Ball Losses per Average Touch</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -173,7 +180,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -185,13 +192,23 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.2151987531380981E-2"/>
+          <c:y val="0.17530589885627104"/>
+          <c:w val="0.96784801246861907"/>
+          <c:h val="0.78219284683042711"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -201,7 +218,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$C$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -220,73 +237,112 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="LID4096"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$2:$B$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$A$3:$B$3,Sheet1!$A$5:$B$5,Sheet1!$A$7:$B$7,Sheet1!$A$9:$B$9,Sheet1!$A$11:$B$11)</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>Sheet1!$B$19:$B$23</c:f>
+              <c:strCache>
                 <c:ptCount val="5"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Av</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Av</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Av</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Av</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Av</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl/>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>none</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>easy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>medium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hard</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ultra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$C$2:$C$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$C$3,Sheet1!$C$5,Sheet1!$C$7,Sheet1!$C$9,Sheet1!$C$11)</c:f>
+              <c:f>Sheet1!$C$19:$C$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>107.33</c:v>
+                  <c:v>9.3170595360104348E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>109.69</c:v>
+                  <c:v>9.1166013310237937E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109.62</c:v>
+                  <c:v>9.1224229155263629E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>99.62</c:v>
+                  <c:v>0.1003814495081309</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44.25</c:v>
+                  <c:v>1.4011299435028248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ADCF-4386-96D3-BEB290420C8E}"/>
+              <c16:uniqueId val="{00000000-4623-4ABD-8F2F-EAD92D1412E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -295,7 +351,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$D$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -314,82 +370,121 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="LID4096"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$2:$B$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$A$3:$B$3,Sheet1!$A$5:$B$5,Sheet1!$A$7:$B$7,Sheet1!$A$9:$B$9,Sheet1!$A$11:$B$11)</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>Sheet1!$B$19:$B$23</c:f>
+              <c:strCache>
                 <c:ptCount val="5"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Av</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Av</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Av</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Av</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Av</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl/>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>none</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>easy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>medium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hard</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ultra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$D$2:$D$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$D$3,Sheet1!$D$5,Sheet1!$D$7,Sheet1!$D$9,Sheet1!$D$11)</c:f>
+              <c:f>Sheet1!$D$19:$D$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>195.69</c:v>
+                  <c:v>2.5550615769840055E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>203.12</c:v>
+                  <c:v>2.9539188656951557E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>181.17</c:v>
+                  <c:v>9.9354197714853459E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69.19</c:v>
+                  <c:v>0.76600664835958954</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.75</c:v>
+                  <c:v>9.0232558139534884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-ADCF-4386-96D3-BEB290420C8E}"/>
+              <c16:uniqueId val="{00000001-4623-4ABD-8F2F-EAD92D1412E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$E$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -400,7 +495,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -408,79 +503,119 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="LID4096"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$2:$B$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$A$3:$B$3,Sheet1!$A$5:$B$5,Sheet1!$A$7:$B$7,Sheet1!$A$9:$B$9,Sheet1!$A$11:$B$11)</c:f>
-              <c:multiLvlStrCache>
+            <c:strRef>
+              <c:f>Sheet1!$B$19:$B$23</c:f>
+              <c:strCache>
                 <c:ptCount val="5"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Av</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Av</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Av</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Av</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Av</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl/>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+                <c:pt idx="0">
+                  <c:v>none</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>easy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>medium</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hard</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ultra</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$E$2:$E$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$E$3,Sheet1!$E$5,Sheet1!$E$7,Sheet1!$E$9,Sheet1!$E$11)</c:f>
+              <c:f>Sheet1!$E$19:$E$23</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>191.91</c:v>
+                  <c:v>2.6053879422646031E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>185.26</c:v>
+                  <c:v>4.3182554248083774E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.98</c:v>
+                  <c:v>0.27279812938425563</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.95</c:v>
+                  <c:v>0.78641644325290438</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.09</c:v>
+                  <c:v>19.056974459724952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-ADCF-4386-96D3-BEB290420C8E}"/>
+              <c16:uniqueId val="{00000002-4623-4ABD-8F2F-EAD92D1412E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -488,11 +623,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="133883888"/>
-        <c:axId val="133885328"/>
+        <c:axId val="941915600"/>
+        <c:axId val="941917040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="133883888"/>
+        <c:axId val="941915600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -501,7 +636,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="high"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -520,7 +655,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -532,10 +667,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133885328"/>
+        <c:crossAx val="941917040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -543,8 +678,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="133885328"/>
+        <c:axId val="941917040"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -563,7 +699,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -579,7 +715,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -591,10 +727,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="LID4096"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133883888"/>
+        <c:crossAx val="941915600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -621,7 +757,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -633,563 +769,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Times</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Ball was lost</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Discrete</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$2:$A$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$A$2,Sheet1!$A$4,Sheet1!$A$6,Sheet1!$A$8,Sheet1!$A$10)</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>none</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>easy</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>medium</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>hard</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ultra</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$C$2:$C$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$C$2,Sheet1!$C$4,Sheet1!$C$6,Sheet1!$C$8,Sheet1!$C$10)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>62</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FC0B-489A-BB44-480172D5CCDC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DCCS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$2:$A$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$A$2,Sheet1!$A$4,Sheet1!$A$6,Sheet1!$A$8,Sheet1!$A$10)</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>none</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>easy</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>medium</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>hard</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ultra</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$D$2:$D$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$D$2,Sheet1!$D$4,Sheet1!$D$6,Sheet1!$D$8,Sheet1!$D$10)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>97</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FC0B-489A-BB44-480172D5CCDC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Continuous</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$2:$A$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$A$2,Sheet1!$A$4,Sheet1!$A$6,Sheet1!$A$8,Sheet1!$A$10)</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>none</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>easy</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>medium</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>hard</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>ultra</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$E$2:$E$11</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$E$2,Sheet1!$E$4,Sheet1!$E$6,Sheet1!$E$8,Sheet1!$E$10)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>97</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FC0B-489A-BB44-480172D5CCDC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="314502095"/>
-        <c:axId val="314503055"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="314502095"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="314503055"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="314503055"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="314502095"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="LID4096"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1217,9 +797,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="LID4096"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1270,46 +850,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1813,530 +1353,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>262404</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>29883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>415364</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>125133</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63ACFB3E-A468-B07A-04F7-4BE97DA13EED}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21BE683D-27C1-46D4-EADC-F665BAABA46C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2354,43 +1391,11 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53959381-F6C3-4383-2010-4EC22A176DD7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2690,21 +1695,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200DD900-C995-40ED-90BA-B95732F9DFA2}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -2715,7 +1720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2726,13 +1731,13 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -2746,7 +1751,7 @@
         <v>191.91</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2754,7 +1759,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -2763,7 +1768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -2777,7 +1782,7 @@
         <v>185.26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2785,7 +1790,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>18</v>
@@ -2794,7 +1799,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -2808,7 +1813,7 @@
         <v>76.98</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2819,13 +1824,13 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="E8">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -2839,7 +1844,7 @@
         <v>55.95</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -2856,7 +1861,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -2868,10 +1873,110 @@
       </c>
       <c r="E11">
         <v>5.09</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <f>C2/C3</f>
+        <v>9.3170595360104348E-3</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" ref="D19:E19" si="0">D2/D3</f>
+        <v>2.5550615769840055E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6053879422646031E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <f>C4/C5</f>
+        <v>9.1166013310237937E-3</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" ref="D20:E20" si="1">D4/D5</f>
+        <v>2.9539188656951557E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="1"/>
+        <v>4.3182554248083774E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1">
+        <f>C6/C7</f>
+        <v>9.1224229155263629E-3</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" ref="D21:E21" si="2">D6/D7</f>
+        <v>9.9354197714853459E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="2"/>
+        <v>0.27279812938425563</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1">
+        <f>C8/C9</f>
+        <v>0.1003814495081309</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" ref="D22:E22" si="3">D8/D9</f>
+        <v>0.76600664835958954</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="3"/>
+        <v>0.78641644325290438</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1">
+        <f>C10/C11</f>
+        <v>1.4011299435028248</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" ref="D23:E23" si="4">D10/D11</f>
+        <v>9.0232558139534884</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="4"/>
+        <v>19.056974459724952</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>